--- a/docu/TestExperimentSet1/TestExperiment6.xlsx
+++ b/docu/TestExperimentSet1/TestExperiment6.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268E75B8-3596-46BC-A083-911BC95520D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CFE8B2-58D2-4601-9B8F-0AF31E4ACD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13530" yWindow="2970" windowWidth="14850" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="1515" windowWidth="16155" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="21">
-        <v>21371</v>
+        <v>21.370999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="21">
-        <v>18915</v>
+        <v>18.914999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
